--- a/simulations/cleaned_inclusion_exclusion/van_der_Waal_2022 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/van_der_Waal_2022 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D3">
-        <v>0.7575757575757576</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="E3">
         <v>0.9696969696969697</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.5690355329949238</v>
+        <v>0.7776649746192893</v>
       </c>
       <c r="I3">
-        <v>0.2276716572018586</v>
+        <v>0.05589712301121697</v>
       </c>
       <c r="J3">
-        <v>-0.09090909090909091</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="K3">
-        <v>458</v>
+        <v>125.2727272727273</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -755,34 +755,34 @@
         <v>29</v>
       </c>
       <c r="Q3">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="R3">
-        <v>357</v>
+        <v>28</v>
       </c>
       <c r="S3">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="T3">
-        <v>426</v>
+        <v>89</v>
       </c>
       <c r="U3">
-        <v>513</v>
+        <v>213</v>
       </c>
       <c r="V3">
-        <v>1588</v>
+        <v>1925</v>
       </c>
       <c r="W3">
-        <v>1580</v>
+        <v>1909</v>
       </c>
       <c r="X3">
-        <v>1566</v>
+        <v>1896</v>
       </c>
       <c r="Y3">
-        <v>1511</v>
+        <v>1848</v>
       </c>
       <c r="Z3">
-        <v>1424</v>
+        <v>1724</v>
       </c>
       <c r="AA3">
         <v>30</v>
@@ -800,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.819824</v>
+        <v>0.993805</v>
       </c>
       <c r="AG3">
-        <v>0.815694</v>
+        <v>0.985545</v>
       </c>
       <c r="AH3">
-        <v>0.808467</v>
+        <v>0.978833</v>
       </c>
       <c r="AI3">
-        <v>0.780072</v>
+        <v>0.954053</v>
       </c>
       <c r="AJ3">
-        <v>0.7351569999999999</v>
+        <v>0.890036</v>
       </c>
     </row>
   </sheetData>
